--- a/Proyecto_Final_G1/DOCUMENTACION/1. ELICITACION/1.6 Backlog/Grupo1_SolucionesABP_U2_NRC10519_Backlog_JR_V2.xlsx
+++ b/Proyecto_Final_G1/DOCUMENTACION/1. ELICITACION/1.6 Backlog/Grupo1_SolucionesABP_U2_NRC10519_Backlog_JR_V2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/80156e5d58948c98/10519_G1_INGSWI/Proyecto_Final_G1/DOCUMENTACION/1. ELICITACION/1.6 Backlog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF62BA83-FDDA-47C1-AA7D-F414443EC969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{EF62BA83-FDDA-47C1-AA7D-F414443EC969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D415BDB-1D52-41EB-956D-7AAE2225E424}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="82">
   <si>
     <t>Tema</t>
   </si>
@@ -271,13 +271,26 @@
   </si>
   <si>
     <t>Recomendaciones:  /8</t>
+  </si>
+  <si>
+    <t>Conclusiones:</t>
+  </si>
+  <si>
+    <t>Recomendaciones:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+La recomendación que se ha llegado es adoptar los principios ágiles, especialmente a través del enfoque Scrum, en proyectos en el futuro. Esto no solo mejorara la eficiencia, sino que también enriquece al equipo con conocimientos y valores. Es esencial mantener un equilibrio adecuado entre las líneas que representan las horas planificadas y las restantes para asegurar un progreso constante; se recomienda llevar cabos periódicos, como después de cada fase, para identificar oportunidades de mejora continua. Al abrazar, se debe adaptar a desafíos y evolucionar de manera constante, se asegura tanto el éxito de los proyectos como el desarrollo constante del equipo.</t>
+  </si>
+  <si>
+    <t>Se ha llegado a la conclusión general de que a medida que el Team Scrum avanza en la ejecución del proyecto, adquiere conocimientos y valores que tendrán un impacto en el futuro. En relación con la implementación de los cuatro requisitos específicos, se ha logrado un desempeño notable. Si bien no es perfecto, el trabajo realizado puede requerir aceptable, como lo evidencia la gráfica adjunta. En dicha gráfica, se representan dos líneas: la línea naranja muestra las horas estimadas restantes, mientras que la línea azul representa las horas estimadas totales. Es crucial notar que estas dos líneas deben permanecer cercanas, ya que un aumento en la línea azul indicaría un retraso en el proyecto, mientras que su disminución señalaría un avance eficiente en el tiempo de desarrollo. En particular, la línea azul que refleja el progreso del proyecto muestra un trayecto positivo, con un período en el cual el Team Scrum formuló un avance significativo. Posteriormente, la línea retoma su curso en consonancia con las Horas Estimadas Restantes, continuando así el progreso en línea con las expectativas.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -354,6 +367,21 @@
       <color theme="0"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -393,7 +421,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -408,11 +436,173 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -495,12 +685,87 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1090,7 +1355,7 @@
   </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -1255,7 +1520,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="32" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2291,7 +2556,7 @@
   </sheetPr>
   <dimension ref="A1:H987"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H25" activeCellId="12" sqref="H4 H5 H6 H10 H12 H11 H16 H17 H18 H22 H23 H24 H25"/>
     </sheetView>
   </sheetViews>
@@ -2376,12 +2641,12 @@
       <c r="A4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
       <c r="F4" s="22" t="s">
         <v>52</v>
       </c>
@@ -2394,12 +2659,12 @@
       <c r="A5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
       <c r="F5" s="22" t="s">
         <v>52</v>
       </c>
@@ -2412,12 +2677,12 @@
       <c r="A6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
       <c r="F6" s="22" t="s">
         <v>52</v>
       </c>
@@ -2496,12 +2761,12 @@
       <c r="A10" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
       <c r="F10" s="20" t="s">
         <v>61</v>
       </c>
@@ -2514,12 +2779,12 @@
       <c r="A11" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
       <c r="F11" s="20" t="s">
         <v>61</v>
       </c>
@@ -2532,12 +2797,12 @@
       <c r="A12" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
       <c r="F12" s="20" t="s">
         <v>61</v>
       </c>
@@ -2616,12 +2881,12 @@
       <c r="A16" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
       <c r="F16" s="22" t="s">
         <v>68</v>
       </c>
@@ -2634,12 +2899,12 @@
       <c r="A17" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
       <c r="F17" s="22" t="s">
         <v>68</v>
       </c>
@@ -2652,12 +2917,12 @@
       <c r="A18" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
       <c r="F18" s="22" t="s">
         <v>68</v>
       </c>
@@ -2736,12 +3001,12 @@
       <c r="A22" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
       <c r="F22" s="20" t="s">
         <v>69</v>
       </c>
@@ -2754,12 +3019,12 @@
       <c r="A23" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
       <c r="F23" s="20" t="s">
         <v>69</v>
       </c>
@@ -2772,12 +3037,12 @@
       <c r="A24" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
       <c r="F24" s="20" t="s">
         <v>69</v>
       </c>
@@ -2790,12 +3055,12 @@
       <c r="A25" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
       <c r="F25" s="20" t="s">
         <v>69</v>
       </c>
@@ -2806,10 +3071,10 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
       <c r="F26" s="20"/>
       <c r="G26" s="20"/>
       <c r="H26" s="20"/>
@@ -3777,6 +4042,11 @@
     <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B22:E22"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B18:E18"/>
@@ -3786,11 +4056,6 @@
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B22:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -3802,10 +4067,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I1018"/>
+  <dimension ref="A1:R1013"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4204,7 +4469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="30"/>
@@ -4215,10 +4480,10 @@
       <c r="H17" s="5"/>
       <c r="I17" s="31"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="9" t="s">
         <v>29</v>
@@ -4248,7 +4513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="9" t="s">
         <v>30</v>
@@ -4277,43 +4542,223 @@
         <f>G20-(SUM(C4:C17)/5)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K20" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="42"/>
+    </row>
+    <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K21" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="44"/>
+    </row>
+    <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K22" s="45"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="46"/>
+    </row>
+    <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K23" s="45"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="46"/>
+    </row>
+    <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:9" ht="31.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="46"/>
+    </row>
+    <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K25" s="45"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="46"/>
+    </row>
+    <row r="26" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K26" s="45"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="46"/>
+    </row>
+    <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K27" s="45"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="38"/>
+      <c r="Q27" s="46"/>
+    </row>
+    <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K28" s="45"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="46"/>
+    </row>
+    <row r="29" spans="1:17" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K29" s="45"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="46"/>
+    </row>
+    <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K30" s="45"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="38"/>
+      <c r="O30" s="38"/>
+      <c r="P30" s="38"/>
+      <c r="Q30" s="46"/>
+    </row>
+    <row r="31" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K31" s="47"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="48"/>
+      <c r="O31" s="48"/>
+      <c r="P31" s="48"/>
+      <c r="Q31" s="49"/>
+    </row>
+    <row r="32" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="11:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K33" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="L33" s="51"/>
+      <c r="M33" s="51"/>
+      <c r="N33" s="51"/>
+      <c r="O33" s="51"/>
+      <c r="P33" s="51"/>
+      <c r="Q33" s="52"/>
+    </row>
+    <row r="34" spans="11:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K34" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="L34" s="54"/>
+      <c r="M34" s="54"/>
+      <c r="N34" s="54"/>
+      <c r="O34" s="54"/>
+      <c r="P34" s="54"/>
+      <c r="Q34" s="55"/>
+    </row>
+    <row r="35" spans="11:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K35" s="56"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="57"/>
+      <c r="N35" s="57"/>
+      <c r="O35" s="57"/>
+      <c r="P35" s="57"/>
+      <c r="Q35" s="58"/>
+    </row>
+    <row r="36" spans="11:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K36" s="56"/>
+      <c r="L36" s="57"/>
+      <c r="M36" s="57"/>
+      <c r="N36" s="57"/>
+      <c r="O36" s="57"/>
+      <c r="P36" s="57"/>
+      <c r="Q36" s="58"/>
+    </row>
+    <row r="37" spans="11:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K37" s="56"/>
+      <c r="L37" s="57"/>
+      <c r="M37" s="57"/>
+      <c r="N37" s="57"/>
+      <c r="O37" s="57"/>
+      <c r="P37" s="57"/>
+      <c r="Q37" s="58"/>
+    </row>
+    <row r="38" spans="11:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K38" s="56"/>
+      <c r="L38" s="57"/>
+      <c r="M38" s="57"/>
+      <c r="N38" s="57"/>
+      <c r="O38" s="57"/>
+      <c r="P38" s="57"/>
+      <c r="Q38" s="58"/>
+      <c r="R38" s="39"/>
+    </row>
+    <row r="39" spans="11:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K39" s="56"/>
+      <c r="L39" s="57"/>
+      <c r="M39" s="57"/>
+      <c r="N39" s="57"/>
+      <c r="O39" s="57"/>
+      <c r="P39" s="57"/>
+      <c r="Q39" s="58"/>
+    </row>
+    <row r="40" spans="11:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K40" s="59"/>
+      <c r="L40" s="60"/>
+      <c r="M40" s="60"/>
+      <c r="N40" s="60"/>
+      <c r="O40" s="60"/>
+      <c r="P40" s="60"/>
+      <c r="Q40" s="61"/>
+    </row>
+    <row r="41" spans="11:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K41" s="39"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="39"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="39"/>
+    </row>
+    <row r="42" spans="11:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K42" s="39"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="39"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="39"/>
+      <c r="Q42" s="39"/>
+    </row>
+    <row r="43" spans="11:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="11:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="11:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="11:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="11:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="11:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5279,12 +5724,13 @@
     <row r="1011" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1012" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1013" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1014" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1015" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1016" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1017" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1018" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="K34:Q40"/>
+    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="K21:Q31"/>
+    <mergeCell ref="K33:Q33"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/Proyecto_Final_G1/DOCUMENTACION/1. ELICITACION/1.6 Backlog/Grupo1_SolucionesABP_U2_NRC10519_Backlog_JR_V2.xlsx
+++ b/Proyecto_Final_G1/DOCUMENTACION/1. ELICITACION/1.6 Backlog/Grupo1_SolucionesABP_U2_NRC10519_Backlog_JR_V2.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="3" documentId="8_{EF62BA83-FDDA-47C1-AA7D-F414443EC969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D415BDB-1D52-41EB-956D-7AAE2225E424}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -688,58 +688,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -766,6 +721,51 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1355,8 +1355,8 @@
   </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2641,12 +2641,12 @@
       <c r="A4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
       <c r="F4" s="22" t="s">
         <v>52</v>
       </c>
@@ -2659,12 +2659,12 @@
       <c r="A5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
       <c r="F5" s="22" t="s">
         <v>52</v>
       </c>
@@ -2677,12 +2677,12 @@
       <c r="A6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
       <c r="F6" s="22" t="s">
         <v>52</v>
       </c>
@@ -2761,12 +2761,12 @@
       <c r="A10" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
       <c r="F10" s="20" t="s">
         <v>61</v>
       </c>
@@ -2779,12 +2779,12 @@
       <c r="A11" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
       <c r="F11" s="20" t="s">
         <v>61</v>
       </c>
@@ -2797,12 +2797,12 @@
       <c r="A12" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
       <c r="F12" s="20" t="s">
         <v>61</v>
       </c>
@@ -2881,12 +2881,12 @@
       <c r="A16" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
       <c r="F16" s="22" t="s">
         <v>68</v>
       </c>
@@ -2899,12 +2899,12 @@
       <c r="A17" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
       <c r="F17" s="22" t="s">
         <v>68</v>
       </c>
@@ -2917,12 +2917,12 @@
       <c r="A18" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
       <c r="F18" s="22" t="s">
         <v>68</v>
       </c>
@@ -3001,12 +3001,12 @@
       <c r="A22" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
       <c r="F22" s="20" t="s">
         <v>69</v>
       </c>
@@ -3019,12 +3019,12 @@
       <c r="A23" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
       <c r="F23" s="20" t="s">
         <v>69</v>
       </c>
@@ -3037,12 +3037,12 @@
       <c r="A24" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
       <c r="F24" s="20" t="s">
         <v>69</v>
       </c>
@@ -3055,12 +3055,12 @@
       <c r="A25" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
       <c r="F25" s="20" t="s">
         <v>69</v>
       </c>
@@ -3071,10 +3071,10 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
       <c r="F26" s="20"/>
       <c r="G26" s="20"/>
       <c r="H26" s="20"/>
@@ -4042,11 +4042,6 @@
     <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B22:E22"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B18:E18"/>
@@ -4056,6 +4051,11 @@
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B22:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -4069,7 +4069,7 @@
   </sheetPr>
   <dimension ref="A1:R1013"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
@@ -4542,216 +4542,216 @@
         <f>G20-(SUM(C4:C17)/5)</f>
         <v>0</v>
       </c>
-      <c r="K20" s="40" t="s">
+      <c r="K20" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="42"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="49"/>
     </row>
     <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="K21" s="43" t="s">
+      <c r="K21" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="44"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="51"/>
+      <c r="Q21" s="52"/>
     </row>
     <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="46"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="55"/>
     </row>
     <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="46"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="55"/>
     </row>
     <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="46"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="55"/>
     </row>
     <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K25" s="45"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="46"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="55"/>
     </row>
     <row r="26" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K26" s="45"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
-      <c r="O26" s="38"/>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="46"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="55"/>
     </row>
     <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K27" s="45"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
-      <c r="O27" s="38"/>
-      <c r="P27" s="38"/>
-      <c r="Q27" s="46"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="55"/>
     </row>
     <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K28" s="45"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38"/>
-      <c r="O28" s="38"/>
-      <c r="P28" s="38"/>
-      <c r="Q28" s="46"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="54"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="55"/>
     </row>
     <row r="29" spans="1:17" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K29" s="45"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="38"/>
-      <c r="O29" s="38"/>
-      <c r="P29" s="38"/>
-      <c r="Q29" s="46"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="55"/>
     </row>
     <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K30" s="45"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="38"/>
-      <c r="O30" s="38"/>
-      <c r="P30" s="38"/>
-      <c r="Q30" s="46"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="54"/>
+      <c r="P30" s="54"/>
+      <c r="Q30" s="55"/>
     </row>
     <row r="31" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K31" s="47"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="48"/>
-      <c r="N31" s="48"/>
-      <c r="O31" s="48"/>
-      <c r="P31" s="48"/>
-      <c r="Q31" s="49"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="57"/>
+      <c r="N31" s="57"/>
+      <c r="O31" s="57"/>
+      <c r="P31" s="57"/>
+      <c r="Q31" s="58"/>
     </row>
     <row r="32" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="11:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K33" s="50" t="s">
+      <c r="K33" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="L33" s="51"/>
-      <c r="M33" s="51"/>
-      <c r="N33" s="51"/>
-      <c r="O33" s="51"/>
-      <c r="P33" s="51"/>
-      <c r="Q33" s="52"/>
+      <c r="L33" s="60"/>
+      <c r="M33" s="60"/>
+      <c r="N33" s="60"/>
+      <c r="O33" s="60"/>
+      <c r="P33" s="60"/>
+      <c r="Q33" s="61"/>
     </row>
     <row r="34" spans="11:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K34" s="53" t="s">
+      <c r="K34" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="L34" s="54"/>
-      <c r="M34" s="54"/>
-      <c r="N34" s="54"/>
-      <c r="O34" s="54"/>
-      <c r="P34" s="54"/>
-      <c r="Q34" s="55"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="39"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="40"/>
     </row>
     <row r="35" spans="11:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K35" s="56"/>
-      <c r="L35" s="57"/>
-      <c r="M35" s="57"/>
-      <c r="N35" s="57"/>
-      <c r="O35" s="57"/>
-      <c r="P35" s="57"/>
-      <c r="Q35" s="58"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="42"/>
+      <c r="M35" s="42"/>
+      <c r="N35" s="42"/>
+      <c r="O35" s="42"/>
+      <c r="P35" s="42"/>
+      <c r="Q35" s="43"/>
     </row>
     <row r="36" spans="11:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K36" s="56"/>
-      <c r="L36" s="57"/>
-      <c r="M36" s="57"/>
-      <c r="N36" s="57"/>
-      <c r="O36" s="57"/>
-      <c r="P36" s="57"/>
-      <c r="Q36" s="58"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="42"/>
+      <c r="N36" s="42"/>
+      <c r="O36" s="42"/>
+      <c r="P36" s="42"/>
+      <c r="Q36" s="43"/>
     </row>
     <row r="37" spans="11:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K37" s="56"/>
-      <c r="L37" s="57"/>
-      <c r="M37" s="57"/>
-      <c r="N37" s="57"/>
-      <c r="O37" s="57"/>
-      <c r="P37" s="57"/>
-      <c r="Q37" s="58"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="42"/>
+      <c r="N37" s="42"/>
+      <c r="O37" s="42"/>
+      <c r="P37" s="42"/>
+      <c r="Q37" s="43"/>
     </row>
     <row r="38" spans="11:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K38" s="56"/>
-      <c r="L38" s="57"/>
-      <c r="M38" s="57"/>
-      <c r="N38" s="57"/>
-      <c r="O38" s="57"/>
-      <c r="P38" s="57"/>
-      <c r="Q38" s="58"/>
-      <c r="R38" s="39"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="42"/>
+      <c r="M38" s="42"/>
+      <c r="N38" s="42"/>
+      <c r="O38" s="42"/>
+      <c r="P38" s="42"/>
+      <c r="Q38" s="43"/>
+      <c r="R38" s="33"/>
     </row>
     <row r="39" spans="11:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K39" s="56"/>
-      <c r="L39" s="57"/>
-      <c r="M39" s="57"/>
-      <c r="N39" s="57"/>
-      <c r="O39" s="57"/>
-      <c r="P39" s="57"/>
-      <c r="Q39" s="58"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="42"/>
+      <c r="M39" s="42"/>
+      <c r="N39" s="42"/>
+      <c r="O39" s="42"/>
+      <c r="P39" s="42"/>
+      <c r="Q39" s="43"/>
     </row>
     <row r="40" spans="11:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K40" s="59"/>
-      <c r="L40" s="60"/>
-      <c r="M40" s="60"/>
-      <c r="N40" s="60"/>
-      <c r="O40" s="60"/>
-      <c r="P40" s="60"/>
-      <c r="Q40" s="61"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="45"/>
+      <c r="M40" s="45"/>
+      <c r="N40" s="45"/>
+      <c r="O40" s="45"/>
+      <c r="P40" s="45"/>
+      <c r="Q40" s="46"/>
     </row>
     <row r="41" spans="11:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K41" s="39"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="39"/>
-      <c r="N41" s="39"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="39"/>
-      <c r="Q41" s="39"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="33"/>
+      <c r="N41" s="33"/>
+      <c r="O41" s="33"/>
+      <c r="P41" s="33"/>
+      <c r="Q41" s="33"/>
     </row>
     <row r="42" spans="11:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K42" s="39"/>
-      <c r="L42" s="39"/>
-      <c r="M42" s="39"/>
-      <c r="N42" s="39"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="39"/>
-      <c r="Q42" s="39"/>
+      <c r="K42" s="33"/>
+      <c r="L42" s="33"/>
+      <c r="M42" s="33"/>
+      <c r="N42" s="33"/>
+      <c r="O42" s="33"/>
+      <c r="P42" s="33"/>
+      <c r="Q42" s="33"/>
     </row>
     <row r="43" spans="11:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="11:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
